--- a/Testing Spreadsheet v1.0 ContactPage Jonnie.xlsx
+++ b/Testing Spreadsheet v1.0 ContactPage Jonnie.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -21,11 +16,12 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -35,7 +31,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +69,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="241">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -710,12 +706,360 @@
   <si>
     <t>Contact_7</t>
   </si>
+  <si>
+    <t>Contact_Tconn_5</t>
+  </si>
+  <si>
+    <t>To show that the company logo displays on the header of the Contact page</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_6</t>
+  </si>
+  <si>
+    <t>To show that the copyright and correct version information displays at the footer of the Contact page.</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_7</t>
+  </si>
+  <si>
+    <t>To show that the correct page title displays on the Contact page</t>
+  </si>
+  <si>
+    <t>4.1.4</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_8</t>
+  </si>
+  <si>
+    <t>To show that the "Contact" page exists as part of the system.</t>
+  </si>
+  <si>
+    <t>4.1.5</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_9</t>
+  </si>
+  <si>
+    <t>To show there is a common navigational area on the Contact page</t>
+  </si>
+  <si>
+    <t>4.1.7</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_10</t>
+  </si>
+  <si>
+    <t>To show that when the Home link is selected within the Contact page, the user is directed to the Home page</t>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_11</t>
+  </si>
+  <si>
+    <t>To show that when Order is selected as a logged in user on the Contact page, the user is directed to the Order page.</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_12</t>
+  </si>
+  <si>
+    <t>To show that when Order is selected as a non-logged in user on the Contact page, the user is prevented from accessing the Order page</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_13</t>
+  </si>
+  <si>
+    <t>To show that when the About link is selected within the Contact page, the user is directed to the About page.</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_14</t>
+  </si>
+  <si>
+    <t>To show that a non-logged in user can directly navigate to the "Register" and "Log in" pages from the "Contact" page</t>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_15</t>
+  </si>
+  <si>
+    <t>To show that a logged in user can directly navigate to the "My Account - reset password" page from the "Contact" page</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_16</t>
+  </si>
+  <si>
+    <t>To show that a logged in user can log off from the "Contact" page</t>
+  </si>
+  <si>
+    <t>Contact_Tconn_17</t>
+  </si>
+  <si>
+    <t>To show that the "Forgot password" page is not directly accessible from the "Contact" page</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>Tcase_9</t>
+  </si>
+  <si>
+    <t>Check if the logo displays upon the Contact page's header</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Kevin O'Hare</t>
+  </si>
+  <si>
+    <t>Tcase_10</t>
+  </si>
+  <si>
+    <t>Check if the correct version information and copyright displays upon the Contact page's footer</t>
+  </si>
+  <si>
+    <t>Tcase_11</t>
+  </si>
+  <si>
+    <t>Check if the Contact page has Contact as a title</t>
+  </si>
+  <si>
+    <t>Tcase_12</t>
+  </si>
+  <si>
+    <t>Check if the Contact page exists as part of the website</t>
+  </si>
+  <si>
+    <t>Tcase_13</t>
+  </si>
+  <si>
+    <t>Check if the Contact page has a common navigational area</t>
+  </si>
+  <si>
+    <t>Tcase_14</t>
+  </si>
+  <si>
+    <t>Check if the Home page can be navigated to from the Contact page</t>
+  </si>
+  <si>
+    <t>Tcase_15</t>
+  </si>
+  <si>
+    <t>Check if the Order page can be navigated to from the Contact page as a logged in user</t>
+  </si>
+  <si>
+    <t>On the Contact page as a logged in user</t>
+  </si>
+  <si>
+    <t>Username: kohare08@qub.ac.uk, password: simpson</t>
+  </si>
+  <si>
+    <t>Tcase_16</t>
+  </si>
+  <si>
+    <t>Check if a non-logged in user is unable to navigate to Order from Contact</t>
+  </si>
+  <si>
+    <t>On the Contact page as an unregistered user</t>
+  </si>
+  <si>
+    <t>Tcase_17</t>
+  </si>
+  <si>
+    <t>Check if the About page can be navigated to from the Contact page</t>
+  </si>
+  <si>
+    <t>Tcase_18</t>
+  </si>
+  <si>
+    <t>Check if the Register page can be directly navigated to from the Contact page as a non-logged in user</t>
+  </si>
+  <si>
+    <t>Tcase_19</t>
+  </si>
+  <si>
+    <t>Check if the Log in page can be directly navigated to from the Contact page as a non-logged in user</t>
+  </si>
+  <si>
+    <t>Tcase_20</t>
+  </si>
+  <si>
+    <t>Check if the My Account - reset password page can be directly navigated to from the Contact page as a logged in user</t>
+  </si>
+  <si>
+    <t>Tcase_21</t>
+  </si>
+  <si>
+    <t>Check if a logged in user can log off from the "Contact" page</t>
+  </si>
+  <si>
+    <t>Tcase_22</t>
+  </si>
+  <si>
+    <t>Check if the "Contact" page does not allow direct access to the "Forgot password" page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_9</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the company logo displays properly within the header</t>
+  </si>
+  <si>
+    <t>Logo will be displayed correctly within the header</t>
+  </si>
+  <si>
+    <t>Displayed but a copyright watermark is visible</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_10</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the correct version infromation and copyright displays properly within the footer</t>
+  </si>
+  <si>
+    <t>Version information and copyright will be displayed correctly within the footer</t>
+  </si>
+  <si>
+    <t>© 2015 - QUB CSC3056 CSC7056 Testing Site V1.0</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_11</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the title is 'Contact'</t>
+  </si>
+  <si>
+    <t>Page title will be 'Contact'</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_12</t>
+  </si>
+  <si>
+    <t>While on the website system, check if the Contact page exists</t>
+  </si>
+  <si>
+    <t>Contact page is accessible and displays when selected</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_13</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the page has a common navigational area</t>
+  </si>
+  <si>
+    <t>Contact page will have a common navigational area</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_14</t>
+  </si>
+  <si>
+    <t>While on the Contact page select the Home link</t>
+  </si>
+  <si>
+    <t>User is directed to the Home page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_15</t>
+  </si>
+  <si>
+    <t>Log in using a valid username and password, direct to the Contact page and then direct to the Order page.</t>
+  </si>
+  <si>
+    <t>User is allowed access to Order page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_16</t>
+  </si>
+  <si>
+    <t>While on the Contact page as a non-logged in user select the Order link.</t>
+  </si>
+  <si>
+    <t>User is prevented access to the Order page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_17</t>
+  </si>
+  <si>
+    <t>While on the Contact page select the About link</t>
+  </si>
+  <si>
+    <t>User is directed to the About page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_18</t>
+  </si>
+  <si>
+    <t>While on the Contact page and not logged in, select the Register link</t>
+  </si>
+  <si>
+    <t>User is directed to the Register page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_19</t>
+  </si>
+  <si>
+    <t>While on the Contact page and not logged in, select the select the Log in link</t>
+  </si>
+  <si>
+    <t>User is directed to the Log in page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_20</t>
+  </si>
+  <si>
+    <t>While on the Contact page as a logged in user, select the My Account - reset password link</t>
+  </si>
+  <si>
+    <t>User is directed to the My Account - reset password  page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_21</t>
+  </si>
+  <si>
+    <t>While on the Contact page as a logged in user, select the Log off link</t>
+  </si>
+  <si>
+    <t>User is logged out of system.</t>
+  </si>
+  <si>
+    <t>Fine, returned to Home page</t>
+  </si>
+  <si>
+    <t>Contact_Tproc_22</t>
+  </si>
+  <si>
+    <t>While on the Contact page check if the Forgot password page is directly accessible</t>
+  </si>
+  <si>
+    <t>User is unable to access Forgot password</t>
+  </si>
+  <si>
+    <t>No direct link to Forgot password as desired</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +1164,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -908,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -995,6 +1345,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,7 +1386,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1057,6 +1408,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1069,6 +1421,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1081,6 +1434,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1132,7 +1486,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6</c:v>
@@ -1158,6 +1512,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1175,7 +1530,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1254,11 +1609,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-520047664"/>
-        <c:axId val="-520042224"/>
+        <c:axId val="53743616"/>
+        <c:axId val="53745152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-520047664"/>
+        <c:axId val="53743616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-520042224"/>
+        <c:crossAx val="53745152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1276,7 +1631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-520042224"/>
+        <c:axId val="53745152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-520047664"/>
+        <c:crossAx val="53743616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,6 +1745,27 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reqs"/>
+      <sheetName val="Test Conditions"/>
+      <sheetName val="Test Cases"/>
+      <sheetName val="Test Procedures"/>
+      <sheetName val="Settings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1433,7 +1809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1468,7 +1844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1714,15 +2090,15 @@
   <sheetPr>
     <tabColor rgb="FF023FAE"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
@@ -1805,71 +2181,191 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1877,18 +2373,30 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D4 D7:D15</xm:sqref>
+          <xm:sqref>D2:D4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Settings!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D6</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D15:D18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[2]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6:D14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1903,8 +2411,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2834,7 @@
       </c>
       <c r="U8" s="31">
         <f>COUNTIF(H2:H90,"*Passed*")</f>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
@@ -2372,16 +2880,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="4"/>
       <c r="L10" s="9"/>
@@ -2397,12 +2919,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
+    <row r="11" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="4"/>
       <c r="L11" s="9"/>
@@ -2411,12 +2951,30 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
+    <row r="12" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -2425,12 +2983,30 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
+    <row r="13" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2439,12 +3015,30 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
+    <row r="14" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2453,12 +3047,30 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+    <row r="15" spans="1:26" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -2467,12 +3079,30 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E16" s="9"/>
+    <row r="16" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -2481,12 +3111,30 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E17" s="9"/>
+    <row r="17" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -2495,12 +3143,30 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E18" s="9"/>
+    <row r="18" spans="1:21" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -2509,12 +3175,30 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -2523,12 +3207,30 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -2537,12 +3239,30 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -2551,12 +3271,30 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -2565,12 +3303,30 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="9"/>
+      <c r="G23" s="12">
+        <v>42108</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>164</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -2579,7 +3335,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
       <c r="F24" s="10"/>
       <c r="G24" s="9"/>
@@ -2593,7 +3349,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
       <c r="G25" s="9"/>
@@ -2610,7 +3366,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
@@ -2631,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
@@ -2652,7 +3408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
@@ -2673,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
@@ -2694,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
@@ -2715,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
@@ -2729,7 +3485,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
       <c r="G32" s="9"/>
@@ -4561,18 +5317,18 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$A$4:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H8 H11:H43</xm:sqref>
+          <xm:sqref>H2:H8 H24:H43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F8 F11:F159</xm:sqref>
+          <xm:sqref>F2:F8 F24:F159</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -4590,13 +5346,25 @@
           <x14:formula1>
             <xm:f>[1]Settings!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F10</xm:sqref>
+          <xm:sqref>F9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Settings!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H9:H10</xm:sqref>
+          <xm:sqref>H9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F10:F23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Settings!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H10:H23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4609,17 +5377,19 @@
   <sheetPr>
     <tabColor rgb="FF99FF99"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" customWidth="1"/>
-    <col min="4" max="5" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="9" width="13.140625" customWidth="1"/>
@@ -4836,12 +5606,22 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4851,12 +5631,22 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>201</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4866,12 +5656,22 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4881,12 +5681,22 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4896,12 +5706,22 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4911,12 +5731,22 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4926,12 +5756,22 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4941,12 +5781,22 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4956,12 +5806,22 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4971,12 +5831,22 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4985,6 +5855,74 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5078,6 +6016,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -5191,33 +6144,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5232,9 +6162,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Testing Spreadsheet v1.0 ContactPage Jonnie.xlsx
+++ b/Testing Spreadsheet v1.0 ContactPage Jonnie.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonnie\Documents\Software Development\CSC7056 Software Testing &amp; Verification\Group Project\Software-Testing-And-Verification\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -21,7 +26,7 @@
   <definedNames>
     <definedName name="_Toc407532261" localSheetId="0">Reqs!$B$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -31,7 +36,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
     <author>qubsys</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="241">
   <si>
     <t xml:space="preserve">Req </t>
   </si>
@@ -1386,7 +1391,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1408,7 +1413,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1421,7 +1425,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1434,7 +1437,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1512,7 +1514,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1530,7 +1531,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1609,11 +1610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53743616"/>
-        <c:axId val="53745152"/>
+        <c:axId val="-274812496"/>
+        <c:axId val="-274806512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53743616"/>
+        <c:axId val="-274812496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53745152"/>
+        <c:crossAx val="-274806512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1631,7 +1632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53745152"/>
+        <c:axId val="-274806512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,7 +1643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53743616"/>
+        <c:crossAx val="-274812496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1809,7 +1810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1844,7 +1845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2092,8 +2093,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,7 +2261,7 @@
         <v>140</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2274,7 +2275,7 @@
         <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2316,7 +2317,7 @@
         <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2329,7 +2330,9 @@
       <c r="C15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2341,7 +2344,9 @@
       <c r="C16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2353,7 +2358,9 @@
       <c r="C17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2365,7 +2372,9 @@
       <c r="C18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,7 +2382,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
@@ -2388,15 +2397,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Settings!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D15:D18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>[2]Settings!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D14</xm:sqref>
+          <xm:sqref>D6:D18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2411,8 +2414,8 @@
   </sheetPr>
   <dimension ref="A1:Z161"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:I23"/>
+    <sheetView topLeftCell="B18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,8 +2896,12 @@
       <c r="D10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="12">
         <v>42108</v>
       </c>
@@ -2932,8 +2939,12 @@
       <c r="D11" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="12">
         <v>42108</v>
       </c>
@@ -2964,8 +2975,12 @@
       <c r="D12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="12">
         <v>42108</v>
       </c>
@@ -2996,8 +3011,12 @@
       <c r="D13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G13" s="12">
         <v>42108</v>
       </c>
@@ -3028,8 +3047,12 @@
       <c r="D14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="12">
         <v>42108</v>
       </c>
@@ -3060,8 +3083,12 @@
       <c r="D15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G15" s="12">
         <v>42108</v>
       </c>
@@ -3092,8 +3119,12 @@
       <c r="D16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G16" s="12">
         <v>42108</v>
       </c>
@@ -3124,8 +3155,12 @@
       <c r="D17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G17" s="12">
         <v>42108</v>
       </c>
@@ -3156,8 +3191,12 @@
       <c r="D18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G18" s="12">
         <v>42108</v>
       </c>
@@ -3188,8 +3227,12 @@
       <c r="D19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G19" s="12">
         <v>42108</v>
       </c>
@@ -3220,8 +3263,12 @@
       <c r="D20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G20" s="12">
         <v>42108</v>
       </c>
@@ -3252,8 +3299,12 @@
       <c r="D21" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G21" s="12">
         <v>42108</v>
       </c>
@@ -3284,8 +3335,12 @@
       <c r="D22" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="G22" s="12">
         <v>42108</v>
       </c>
@@ -3316,8 +3371,12 @@
       <c r="D23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G23" s="12">
         <v>42108</v>
       </c>
@@ -5328,7 +5387,7 @@
           <x14:formula1>
             <xm:f>Settings!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F8 F24:F159</xm:sqref>
+          <xm:sqref>F2:F8 F24:F159 F13:F22</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5358,13 +5417,13 @@
           <x14:formula1>
             <xm:f>[1]Settings!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>F10:F23</xm:sqref>
+          <xm:sqref>H10:H23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Settings!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H10:H23</xm:sqref>
+          <xm:sqref>F10:F12 F23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5379,7 +5438,7 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6025,12 +6084,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -6144,6 +6197,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A346E62E-1A2C-4E03-B91F-FE4FC47F8E89}">
   <ds:schemaRefs>
@@ -6153,15 +6212,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64745CD4-DB27-427B-80D9-1CCB91D6E4BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6175,4 +6225,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEF49AB9-68C3-4E70-84F5-930D4AF0373D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>